--- a/data_excel/406.xlsx
+++ b/data_excel/406.xlsx
@@ -51,9 +51,6 @@
     <t>還有</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>了</t>
   </si>
   <si>
@@ -115,13 +112,17 @@
   </si>
   <si>
     <t>。</t>
+  </si>
+  <si>
+    <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +137,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -145,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -153,12 +161,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -464,7 +488,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C14"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -489,7 +513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -509,7 +533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -522,8 +546,8 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -531,56 +555,56 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
@@ -591,7 +615,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -602,67 +626,67 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
         <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data_excel/406.xlsx
+++ b/data_excel/406.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>枯木頭</t>
   </si>
@@ -115,6 +115,10 @@
   </si>
   <si>
     <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,12 +492,12 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,8 +521,8 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -526,8 +530,8 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>1</v>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
